--- a/sem 4/Technika cyfrowa/lab/lab 6/JK_32312.xlsx
+++ b/sem 4/Technika cyfrowa/lab/lab 6/JK_32312.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\sem 4\Technika cyfrowa\lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkrus\Documents\Studia\sem 4\Technika cyfrowa\lab\lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>A</t>
   </si>
@@ -110,9 +110,6 @@
     <t>A-K = 1</t>
   </si>
   <si>
-    <t>B-K = QA</t>
-  </si>
-  <si>
     <t>A-J = !QC + !QB</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>B-K = QA*QC</t>
   </si>
 </sst>
 </file>
@@ -269,22 +269,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,16 +569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="5.7109375" style="1"/>
+    <col min="1" max="16384" width="5.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -612,29 +612,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="17"/>
       <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
@@ -645,41 +645,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:29" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -710,14 +710,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -726,25 +726,25 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -784,14 +784,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -800,25 +800,25 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -849,14 +849,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
       <c r="D7" s="1">
@@ -865,25 +865,25 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -898,8 +898,8 @@
       <c r="U7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>7</v>
+      <c r="V7" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>14</v>
@@ -914,14 +914,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="1">
@@ -930,25 +930,25 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -963,7 +963,7 @@
       <c r="U8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5" t="s">
@@ -979,14 +979,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -995,36 +995,36 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1033,92 +1033,92 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Z10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>7</v>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>7</v>
+      <c r="J11" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="1">
@@ -1127,98 +1127,98 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>0</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1227,25 +1227,25 @@
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>1</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>0</v>
       </c>
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -1255,14 +1255,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>1</v>
       </c>
       <c r="D18" s="1">
@@ -1271,36 +1271,36 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>0</v>
       </c>
       <c r="D19" s="1">
@@ -1309,36 +1309,36 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="14">
         <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>1</v>
       </c>
       <c r="D20" s="1">
@@ -1347,36 +1347,36 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="14">
         <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="14">
         <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1385,25 +1385,25 @@
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <v>1</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="J21" s="17">
-        <v>1</v>
+      <c r="J21" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -1413,14 +1413,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1429,86 +1429,86 @@
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <v>1</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <v>1</v>
       </c>
       <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="17">
-        <v>1</v>
-      </c>
       <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>1</v>
       </c>
       <c r="D24" s="1">
@@ -1517,40 +1517,40 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="14">
         <v>1</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
